--- a/Data_example/DY130/Sensors_and_Moorings/Salinity/DY130/SALFORM_SS.xlsx
+++ b/Data_example/DY130/Sensors_and_Moorings/Salinity/DY130/SALFORM_SS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SERPENT Hur/DY130/Sensors_and_Moorings/Salinity/DY130/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablotrucco/Documents/Github/PAP_biogeochemical_QC_calibration/Data_example/DY130/Sensors_and_Moorings/Salinity/DY130/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8EF7B5-0184-6D49-B3B2-78E9CB042795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB274418-32AD-1D4A-A002-551D8D1E70CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="598" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,270 +157,6 @@
     <t>DATE: 07/04/2021</t>
   </si>
   <si>
-    <t>87 15:53</t>
-  </si>
-  <si>
-    <t>87 16:08</t>
-  </si>
-  <si>
-    <t>87 16:21</t>
-  </si>
-  <si>
-    <t>87 16:42</t>
-  </si>
-  <si>
-    <t>87 16:47</t>
-  </si>
-  <si>
-    <t>87 16:49</t>
-  </si>
-  <si>
-    <t>87 16:53</t>
-  </si>
-  <si>
-    <t>87 17:02</t>
-  </si>
-  <si>
-    <t>87 17:11</t>
-  </si>
-  <si>
-    <t>87 17:15</t>
-  </si>
-  <si>
-    <t>89 17:08</t>
-  </si>
-  <si>
-    <t>89 17:13</t>
-  </si>
-  <si>
-    <t>89 17:20</t>
-  </si>
-  <si>
-    <t>89 17:28</t>
-  </si>
-  <si>
-    <t>89 17:37</t>
-  </si>
-  <si>
-    <t>90 08:20</t>
-  </si>
-  <si>
-    <t>90 08:55</t>
-  </si>
-  <si>
-    <t>90 09:14</t>
-  </si>
-  <si>
-    <t>90 09:29</t>
-  </si>
-  <si>
-    <t>90 09:56</t>
-  </si>
-  <si>
-    <t>90 10:11</t>
-  </si>
-  <si>
-    <t>90 10:31</t>
-  </si>
-  <si>
-    <t>90 10:39</t>
-  </si>
-  <si>
-    <t>90 10:43</t>
-  </si>
-  <si>
-    <t>90 10:46</t>
-  </si>
-  <si>
-    <t>91 07:22</t>
-  </si>
-  <si>
-    <t>91 07:31</t>
-  </si>
-  <si>
-    <t>91 07:38</t>
-  </si>
-  <si>
-    <t>91 07:42</t>
-  </si>
-  <si>
-    <t>92 07:59</t>
-  </si>
-  <si>
-    <t>92 08:08</t>
-  </si>
-  <si>
-    <t>92 08:16</t>
-  </si>
-  <si>
-    <t>92 08:30</t>
-  </si>
-  <si>
-    <t>92 08:42</t>
-  </si>
-  <si>
-    <t>92 08:52</t>
-  </si>
-  <si>
-    <t>92 08:57</t>
-  </si>
-  <si>
-    <t>92 09:02</t>
-  </si>
-  <si>
-    <t>92 09:08</t>
-  </si>
-  <si>
-    <t>92 09:12</t>
-  </si>
-  <si>
-    <t>94 07:13</t>
-  </si>
-  <si>
-    <t>94 07:20</t>
-  </si>
-  <si>
-    <t>94 07:24</t>
-  </si>
-  <si>
-    <t>94 07:37</t>
-  </si>
-  <si>
-    <t>94 07:43</t>
-  </si>
-  <si>
-    <t>94 09:50</t>
-  </si>
-  <si>
-    <t>94 10:05</t>
-  </si>
-  <si>
-    <t>94 10:12</t>
-  </si>
-  <si>
-    <t>94 10:23</t>
-  </si>
-  <si>
-    <t>94 10:28</t>
-  </si>
-  <si>
-    <t>94 10:33</t>
-  </si>
-  <si>
-    <t>94 10:37</t>
-  </si>
-  <si>
-    <t>94 10:40</t>
-  </si>
-  <si>
-    <t>95 09:54</t>
-  </si>
-  <si>
-    <t>95 10:09</t>
-  </si>
-  <si>
-    <t>95 10:16</t>
-  </si>
-  <si>
-    <t>95 10:21</t>
-  </si>
-  <si>
-    <t>95 10:26</t>
-  </si>
-  <si>
-    <t>95 10:32</t>
-  </si>
-  <si>
-    <t>95 10:36</t>
-  </si>
-  <si>
-    <t>95 10:41</t>
-  </si>
-  <si>
-    <t>95 10:46</t>
-  </si>
-  <si>
-    <t>96 08:17</t>
-  </si>
-  <si>
-    <t>96 09:00</t>
-  </si>
-  <si>
-    <t>96 09:23</t>
-  </si>
-  <si>
-    <t>96 09:43</t>
-  </si>
-  <si>
-    <t>96 09:49</t>
-  </si>
-  <si>
-    <t>96 09:58</t>
-  </si>
-  <si>
-    <t>96 10:07</t>
-  </si>
-  <si>
-    <t>96 10:16</t>
-  </si>
-  <si>
-    <t>96 10:21</t>
-  </si>
-  <si>
-    <t>96 10:25</t>
-  </si>
-  <si>
-    <t>97 08:19</t>
-  </si>
-  <si>
-    <t>97 08:59</t>
-  </si>
-  <si>
-    <t>97 09:20</t>
-  </si>
-  <si>
-    <t>97 09:58</t>
-  </si>
-  <si>
-    <t>97 10:31</t>
-  </si>
-  <si>
-    <t>97 10:44</t>
-  </si>
-  <si>
-    <t>97 10:53</t>
-  </si>
-  <si>
-    <t>97 11:14</t>
-  </si>
-  <si>
-    <t>97 11:31</t>
-  </si>
-  <si>
-    <t>97 11:35</t>
-  </si>
-  <si>
-    <t>97 11:39</t>
-  </si>
-  <si>
-    <t>98 10:13</t>
-  </si>
-  <si>
-    <t>98 10:46</t>
-  </si>
-  <si>
-    <t>98 11:00</t>
-  </si>
-  <si>
-    <t>98 11:46</t>
-  </si>
-  <si>
-    <t>98 12:04</t>
-  </si>
-  <si>
-    <t>98 12:24</t>
-  </si>
-  <si>
     <t>98/12:36</t>
   </si>
   <si>
@@ -482,6 +218,270 @@
   </si>
   <si>
     <t>S/S C.T.D.  SALINITIES    CRUISE:  DY130</t>
+  </si>
+  <si>
+    <t>87/15:53</t>
+  </si>
+  <si>
+    <t>87/16:08</t>
+  </si>
+  <si>
+    <t>87/16:21</t>
+  </si>
+  <si>
+    <t>87/16:42</t>
+  </si>
+  <si>
+    <t>87/16:47</t>
+  </si>
+  <si>
+    <t>87/16:49</t>
+  </si>
+  <si>
+    <t>87/16:53</t>
+  </si>
+  <si>
+    <t>87/17:02</t>
+  </si>
+  <si>
+    <t>87/17:11</t>
+  </si>
+  <si>
+    <t>87/17:15</t>
+  </si>
+  <si>
+    <t>89/17:08</t>
+  </si>
+  <si>
+    <t>89/17:13</t>
+  </si>
+  <si>
+    <t>89/17:20</t>
+  </si>
+  <si>
+    <t>89/17:28</t>
+  </si>
+  <si>
+    <t>89/17:37</t>
+  </si>
+  <si>
+    <t>90/08:20</t>
+  </si>
+  <si>
+    <t>90/08:55</t>
+  </si>
+  <si>
+    <t>90/09:14</t>
+  </si>
+  <si>
+    <t>90/09:29</t>
+  </si>
+  <si>
+    <t>90/09:56</t>
+  </si>
+  <si>
+    <t>90/10:11</t>
+  </si>
+  <si>
+    <t>90/10:31</t>
+  </si>
+  <si>
+    <t>90/10:39</t>
+  </si>
+  <si>
+    <t>90/10:43</t>
+  </si>
+  <si>
+    <t>90/10:46</t>
+  </si>
+  <si>
+    <t>91/07:22</t>
+  </si>
+  <si>
+    <t>91/07:31</t>
+  </si>
+  <si>
+    <t>91/07:38</t>
+  </si>
+  <si>
+    <t>91/07:42</t>
+  </si>
+  <si>
+    <t>92/07:59</t>
+  </si>
+  <si>
+    <t>92/08:08</t>
+  </si>
+  <si>
+    <t>92/08:16</t>
+  </si>
+  <si>
+    <t>92/08:30</t>
+  </si>
+  <si>
+    <t>92/08:42</t>
+  </si>
+  <si>
+    <t>92/08:52</t>
+  </si>
+  <si>
+    <t>92/08:57</t>
+  </si>
+  <si>
+    <t>92/09:02</t>
+  </si>
+  <si>
+    <t>92/09:08</t>
+  </si>
+  <si>
+    <t>92/09:12</t>
+  </si>
+  <si>
+    <t>94/07:13</t>
+  </si>
+  <si>
+    <t>94/07:20</t>
+  </si>
+  <si>
+    <t>94/07:24</t>
+  </si>
+  <si>
+    <t>94/07:37</t>
+  </si>
+  <si>
+    <t>94/07:43</t>
+  </si>
+  <si>
+    <t>94/09:50</t>
+  </si>
+  <si>
+    <t>94/10:05</t>
+  </si>
+  <si>
+    <t>94/10:12</t>
+  </si>
+  <si>
+    <t>94/10:23</t>
+  </si>
+  <si>
+    <t>94/10:28</t>
+  </si>
+  <si>
+    <t>94/10:33</t>
+  </si>
+  <si>
+    <t>94/10:37</t>
+  </si>
+  <si>
+    <t>94/10:40</t>
+  </si>
+  <si>
+    <t>95/09:54</t>
+  </si>
+  <si>
+    <t>95/10:09</t>
+  </si>
+  <si>
+    <t>95/10:16</t>
+  </si>
+  <si>
+    <t>95/10:21</t>
+  </si>
+  <si>
+    <t>95/10:26</t>
+  </si>
+  <si>
+    <t>95/10:32</t>
+  </si>
+  <si>
+    <t>95/10:36</t>
+  </si>
+  <si>
+    <t>95/10:41</t>
+  </si>
+  <si>
+    <t>95/10:46</t>
+  </si>
+  <si>
+    <t>96/08:17</t>
+  </si>
+  <si>
+    <t>96/09:00</t>
+  </si>
+  <si>
+    <t>96/09:23</t>
+  </si>
+  <si>
+    <t>96/09:43</t>
+  </si>
+  <si>
+    <t>96/09:49</t>
+  </si>
+  <si>
+    <t>96/09:58</t>
+  </si>
+  <si>
+    <t>96/10:07</t>
+  </si>
+  <si>
+    <t>96/10:16</t>
+  </si>
+  <si>
+    <t>96/10:21</t>
+  </si>
+  <si>
+    <t>96/10:25</t>
+  </si>
+  <si>
+    <t>97/08:19</t>
+  </si>
+  <si>
+    <t>97/08:59</t>
+  </si>
+  <si>
+    <t>97/09:20</t>
+  </si>
+  <si>
+    <t>97/09:58</t>
+  </si>
+  <si>
+    <t>97/10:31</t>
+  </si>
+  <si>
+    <t>97/10:44</t>
+  </si>
+  <si>
+    <t>97/10:53</t>
+  </si>
+  <si>
+    <t>97/11:14</t>
+  </si>
+  <si>
+    <t>97/11:31</t>
+  </si>
+  <si>
+    <t>97/11:35</t>
+  </si>
+  <si>
+    <t>97/11:39</t>
+  </si>
+  <si>
+    <t>98/10:13</t>
+  </si>
+  <si>
+    <t>98/10:46</t>
+  </si>
+  <si>
+    <t>98/11:00</t>
+  </si>
+  <si>
+    <t>98/11:46</t>
+  </si>
+  <si>
+    <t>98/12:04</t>
+  </si>
+  <si>
+    <t>98/12:24</t>
   </si>
 </sst>
 </file>
@@ -6256,7 +6256,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomLeft" activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6288,7 +6288,7 @@
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -6469,7 +6469,7 @@
         <v>308</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E9" s="62">
         <v>35.027999999999999</v>
@@ -6493,11 +6493,11 @@
         <v>-1.300000000000523E-3</v>
       </c>
       <c r="K9" s="63">
-        <f>G9-$G$131</f>
+        <f t="shared" ref="K9:K39" si="3">G9-$G$131</f>
         <v>4.0035714285681879E-3</v>
       </c>
       <c r="L9" s="64">
-        <f>I9-$I$131</f>
+        <f t="shared" ref="L9:L39" si="4">I9-$I$131</f>
         <v>5.7366071428537023E-3</v>
       </c>
     </row>
@@ -6512,7 +6512,7 @@
         <v>309</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7">
         <v>35.1098</v>
@@ -6536,11 +6536,11 @@
         <v>-1.8000000000029104E-3</v>
       </c>
       <c r="K10" s="16">
-        <f>G10-$G$131</f>
+        <f t="shared" si="3"/>
         <v>4.1035714285715076E-3</v>
       </c>
       <c r="L10" s="20">
-        <f>I10-$I$131</f>
+        <f t="shared" si="4"/>
         <v>5.3366071428546345E-3</v>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
         <v>310</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E11" s="7">
         <v>35.7136</v>
@@ -6579,11 +6579,11 @@
         <v>-1.6000000000033765E-3</v>
       </c>
       <c r="K11" s="16">
-        <f>G11-$G$131</f>
+        <f t="shared" si="3"/>
         <v>3.5035714285729064E-3</v>
       </c>
       <c r="L11" s="20">
-        <f>I11-$I$131</f>
+        <f t="shared" si="4"/>
         <v>4.9366071428555668E-3</v>
       </c>
     </row>
@@ -6598,7 +6598,7 @@
         <v>311</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="E12" s="68">
         <v>35.697899999999997</v>
@@ -6622,11 +6622,11 @@
         <v>-1.8999999999991246E-3</v>
       </c>
       <c r="K12" s="16">
-        <f>G12-$G$131</f>
+        <f t="shared" si="3"/>
         <v>3.4035714285695867E-3</v>
       </c>
       <c r="L12" s="20">
-        <f>I12-$I$131</f>
+        <f t="shared" si="4"/>
         <v>4.536607142856499E-3</v>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
         <v>312</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E13" s="68">
         <v>35.488199999999999</v>
@@ -6665,11 +6665,11 @@
         <v>-2.0000000000024443E-3</v>
       </c>
       <c r="K13" s="16">
-        <f>G13-$G$131</f>
+        <f t="shared" si="3"/>
         <v>2.8035714285709851E-3</v>
       </c>
       <c r="L13" s="20">
-        <f>I13-$I$131</f>
+        <f t="shared" si="4"/>
         <v>3.8366071428545773E-3</v>
       </c>
     </row>
@@ -6684,7 +6684,7 @@
         <v>313</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E14" s="68">
         <v>35.491500000000002</v>
@@ -6708,11 +6708,11 @@
         <v>1.9999999999953388E-4</v>
       </c>
       <c r="K14" s="16">
-        <f>G14-$G$131</f>
+        <f t="shared" si="3"/>
         <v>2.2035714285723834E-3</v>
       </c>
       <c r="L14" s="20">
-        <f>I14-$I$131</f>
+        <f t="shared" si="4"/>
         <v>5.4366071428579542E-3</v>
       </c>
     </row>
@@ -6727,7 +6727,7 @@
         <v>314</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E15" s="68">
         <v>35.4925</v>
@@ -6751,11 +6751,11 @@
         <v>-2.0999999999986585E-3</v>
       </c>
       <c r="K15" s="16">
-        <f>G15-$G$131</f>
+        <f t="shared" si="3"/>
         <v>3.0035714285705189E-3</v>
       </c>
       <c r="L15" s="20">
-        <f>I15-$I$131</f>
+        <f t="shared" si="4"/>
         <v>3.9366071428578973E-3</v>
       </c>
     </row>
@@ -6770,7 +6770,7 @@
         <v>315</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E16" s="68">
         <v>35.563499999999998</v>
@@ -6794,11 +6794,11 @@
         <v>-2.0000000000024443E-3</v>
       </c>
       <c r="K16" s="16">
-        <f>G16-$G$131</f>
+        <f t="shared" si="3"/>
         <v>4.5035714285705753E-3</v>
       </c>
       <c r="L16" s="20">
-        <f>I16-$I$131</f>
+        <f t="shared" si="4"/>
         <v>5.5366071428541684E-3</v>
       </c>
     </row>
@@ -6813,7 +6813,7 @@
         <v>316</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E17" s="68">
         <v>35.563600000000001</v>
@@ -6829,19 +6829,19 @@
         <v>35.562399999999997</v>
       </c>
       <c r="I17" s="68">
-        <f t="shared" ref="I17:I30" si="3">E17-H17</f>
+        <f t="shared" ref="I17:I30" si="5">E17-H17</f>
         <v>1.2000000000043087E-3</v>
       </c>
       <c r="J17" s="68">
-        <f t="shared" ref="J17:J30" si="4">F17-H17</f>
+        <f t="shared" ref="J17:J30" si="6">F17-H17</f>
         <v>-2.2999999999981924E-3</v>
       </c>
       <c r="K17" s="16">
-        <f>G17-$G$131</f>
+        <f t="shared" si="3"/>
         <v>3.1035714285738386E-3</v>
       </c>
       <c r="L17" s="20">
-        <f>I17-$I$131</f>
+        <f t="shared" si="4"/>
         <v>3.8366071428616827E-3</v>
       </c>
     </row>
@@ -6856,7 +6856,7 @@
         <v>317</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E18" s="68">
         <v>35.564700000000002</v>
@@ -6872,19 +6872,19 @@
         <v>35.564100000000003</v>
       </c>
       <c r="I18" s="68">
+        <f t="shared" si="5"/>
+        <v>5.9999999999860165E-4</v>
+      </c>
+      <c r="J18" s="68">
+        <f t="shared" si="6"/>
+        <v>-2.400000000001512E-3</v>
+      </c>
+      <c r="K18" s="16">
         <f t="shared" si="3"/>
-        <v>5.9999999999860165E-4</v>
-      </c>
-      <c r="J18" s="68">
+        <v>2.6035714285714512E-3</v>
+      </c>
+      <c r="L18" s="20">
         <f t="shared" si="4"/>
-        <v>-2.400000000001512E-3</v>
-      </c>
-      <c r="K18" s="16">
-        <f>G18-$G$131</f>
-        <v>2.6035714285714512E-3</v>
-      </c>
-      <c r="L18" s="20">
-        <f>I18-$I$131</f>
         <v>3.2366071428559756E-3</v>
       </c>
     </row>
@@ -6899,7 +6899,7 @@
         <v>319</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E19" s="68">
         <v>35.489600000000003</v>
@@ -6915,19 +6915,19 @@
         <v>35.489800000000002</v>
       </c>
       <c r="I19" s="68">
+        <f t="shared" si="5"/>
+        <v>-1.9999999999953388E-4</v>
+      </c>
+      <c r="J19" s="68">
+        <f t="shared" si="6"/>
+        <v>-2.6000000000010459E-3</v>
+      </c>
+      <c r="K19" s="16">
         <f t="shared" si="3"/>
-        <v>-1.9999999999953388E-4</v>
-      </c>
-      <c r="J19" s="68">
+        <v>2.0035714285728495E-3</v>
+      </c>
+      <c r="L19" s="20">
         <f t="shared" si="4"/>
-        <v>-2.6000000000010459E-3</v>
-      </c>
-      <c r="K19" s="16">
-        <f>G19-$G$131</f>
-        <v>2.0035714285728495E-3</v>
-      </c>
-      <c r="L19" s="20">
-        <f>I19-$I$131</f>
         <v>2.4366071428578401E-3</v>
       </c>
     </row>
@@ -6942,7 +6942,7 @@
         <v>320</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="E20" s="68">
         <v>35.500100000000003</v>
@@ -6958,19 +6958,19 @@
         <v>35.500399999999999</v>
       </c>
       <c r="I20" s="68">
+        <f t="shared" si="5"/>
+        <v>-2.9999999999574811E-4</v>
+      </c>
+      <c r="J20" s="68">
+        <f t="shared" si="6"/>
+        <v>-2.6999999999972601E-3</v>
+      </c>
+      <c r="K20" s="16">
         <f t="shared" si="3"/>
-        <v>-2.9999999999574811E-4</v>
-      </c>
-      <c r="J20" s="68">
+        <v>2.0035714285728495E-3</v>
+      </c>
+      <c r="L20" s="20">
         <f t="shared" si="4"/>
-        <v>-2.6999999999972601E-3</v>
-      </c>
-      <c r="K20" s="16">
-        <f>G20-$G$131</f>
-        <v>2.0035714285728495E-3</v>
-      </c>
-      <c r="L20" s="20">
-        <f>I20-$I$131</f>
         <v>2.3366071428616258E-3</v>
       </c>
     </row>
@@ -6985,7 +6985,7 @@
         <v>321</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="E21" s="68">
         <v>35.511800000000001</v>
@@ -7001,19 +7001,19 @@
         <v>35.5122</v>
       </c>
       <c r="I21" s="68">
+        <f t="shared" si="5"/>
+        <v>-3.9999999999906777E-4</v>
+      </c>
+      <c r="J21" s="68">
+        <f t="shared" si="6"/>
+        <v>-2.4999999999977263E-3</v>
+      </c>
+      <c r="K21" s="16">
         <f t="shared" si="3"/>
-        <v>-3.9999999999906777E-4</v>
-      </c>
-      <c r="J21" s="68">
+        <v>1.703571428569996E-3</v>
+      </c>
+      <c r="L21" s="20">
         <f t="shared" si="4"/>
-        <v>-2.4999999999977263E-3</v>
-      </c>
-      <c r="K21" s="16">
-        <f>G21-$G$131</f>
-        <v>1.703571428569996E-3</v>
-      </c>
-      <c r="L21" s="20">
-        <f>I21-$I$131</f>
         <v>2.2366071428583062E-3</v>
       </c>
     </row>
@@ -7028,7 +7028,7 @@
         <v>322</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E22" s="68">
         <v>35.507800000000003</v>
@@ -7044,19 +7044,19 @@
         <v>35.508000000000003</v>
       </c>
       <c r="I22" s="68">
+        <f t="shared" si="5"/>
+        <v>-1.9999999999953388E-4</v>
+      </c>
+      <c r="J22" s="68">
+        <f t="shared" si="6"/>
+        <v>-2.400000000001512E-3</v>
+      </c>
+      <c r="K22" s="16">
         <f t="shared" si="3"/>
-        <v>-1.9999999999953388E-4</v>
-      </c>
-      <c r="J22" s="68">
+        <v>1.8035714285733156E-3</v>
+      </c>
+      <c r="L22" s="20">
         <f t="shared" si="4"/>
-        <v>-2.400000000001512E-3</v>
-      </c>
-      <c r="K22" s="16">
-        <f>G22-$G$131</f>
-        <v>1.8035714285733156E-3</v>
-      </c>
-      <c r="L22" s="20">
-        <f>I22-$I$131</f>
         <v>2.4366071428578401E-3</v>
       </c>
     </row>
@@ -7071,7 +7071,7 @@
         <v>323</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="E23" s="68">
         <v>35.504800000000003</v>
@@ -7087,19 +7087,19 @@
         <v>35.505200000000002</v>
       </c>
       <c r="I23" s="68">
+        <f t="shared" si="5"/>
+        <v>-3.9999999999906777E-4</v>
+      </c>
+      <c r="J23" s="68">
+        <f t="shared" si="6"/>
+        <v>-2.7000000000043656E-3</v>
+      </c>
+      <c r="K23" s="16">
         <f t="shared" si="3"/>
-        <v>-3.9999999999906777E-4</v>
-      </c>
-      <c r="J23" s="68">
+        <v>1.9035714285766353E-3</v>
+      </c>
+      <c r="L23" s="20">
         <f t="shared" si="4"/>
-        <v>-2.7000000000043656E-3</v>
-      </c>
-      <c r="K23" s="16">
-        <f>G23-$G$131</f>
-        <v>1.9035714285766353E-3</v>
-      </c>
-      <c r="L23" s="20">
-        <f>I23-$I$131</f>
         <v>2.2366071428583062E-3</v>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
         <v>324</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="E24" s="68">
         <v>34.900100000000002</v>
@@ -7130,19 +7130,19 @@
         <v>34.898099999999999</v>
       </c>
       <c r="I24" s="68">
+        <f t="shared" si="5"/>
+        <v>2.0000000000024443E-3</v>
+      </c>
+      <c r="J24" s="68">
+        <f t="shared" si="6"/>
+        <v>-7.0000000000192131E-4</v>
+      </c>
+      <c r="K24" s="16">
         <f t="shared" si="3"/>
-        <v>2.0000000000024443E-3</v>
-      </c>
-      <c r="J24" s="68">
+        <v>2.3035714285757031E-3</v>
+      </c>
+      <c r="L24" s="20">
         <f t="shared" si="4"/>
-        <v>-7.0000000000192131E-4</v>
-      </c>
-      <c r="K24" s="16">
-        <f>G24-$G$131</f>
-        <v>2.3035714285757031E-3</v>
-      </c>
-      <c r="L24" s="20">
-        <f>I24-$I$131</f>
         <v>4.6366071428598186E-3</v>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
         <v>325</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E25" s="68">
         <v>34.938400000000001</v>
@@ -7173,19 +7173,19 @@
         <v>34.938200000000002</v>
       </c>
       <c r="I25" s="68">
+        <f t="shared" si="5"/>
+        <v>1.9999999999953388E-4</v>
+      </c>
+      <c r="J25" s="68">
+        <f t="shared" si="6"/>
+        <v>-1.6999999999995907E-3</v>
+      </c>
+      <c r="K25" s="16">
         <f t="shared" si="3"/>
-        <v>1.9999999999953388E-4</v>
-      </c>
-      <c r="J25" s="68">
+        <v>1.5035714285704621E-3</v>
+      </c>
+      <c r="L25" s="20">
         <f t="shared" si="4"/>
-        <v>-1.6999999999995907E-3</v>
-      </c>
-      <c r="K25" s="16">
-        <f>G25-$G$131</f>
-        <v>1.5035714285704621E-3</v>
-      </c>
-      <c r="L25" s="20">
-        <f>I25-$I$131</f>
         <v>2.8366071428569078E-3</v>
       </c>
     </row>
@@ -7200,7 +7200,7 @@
         <v>326</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E26" s="68">
         <v>34.951099999999997</v>
@@ -7216,19 +7216,19 @@
         <v>34.950600000000001</v>
       </c>
       <c r="I26" s="68">
+        <f t="shared" si="5"/>
+        <v>4.99999999995282E-4</v>
+      </c>
+      <c r="J26" s="68">
+        <f t="shared" si="6"/>
+        <v>-2.0000000000024443E-3</v>
+      </c>
+      <c r="K26" s="16">
         <f t="shared" si="3"/>
-        <v>4.99999999995282E-4</v>
-      </c>
-      <c r="J26" s="68">
+        <v>2.1035714285690637E-3</v>
+      </c>
+      <c r="L26" s="20">
         <f t="shared" si="4"/>
-        <v>-2.0000000000024443E-3</v>
-      </c>
-      <c r="K26" s="16">
-        <f>G26-$G$131</f>
-        <v>2.1035714285690637E-3</v>
-      </c>
-      <c r="L26" s="20">
-        <f>I26-$I$131</f>
         <v>3.1366071428526559E-3</v>
       </c>
     </row>
@@ -7243,7 +7243,7 @@
         <v>327</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="E27" s="68">
         <v>34.941000000000003</v>
@@ -7259,19 +7259,19 @@
         <v>34.9405</v>
       </c>
       <c r="I27" s="68">
+        <f t="shared" si="5"/>
+        <v>5.0000000000238742E-4</v>
+      </c>
+      <c r="J27" s="68">
+        <f t="shared" si="6"/>
+        <v>-2.400000000001512E-3</v>
+      </c>
+      <c r="K27" s="16">
         <f t="shared" si="3"/>
-        <v>5.0000000000238742E-4</v>
-      </c>
-      <c r="J27" s="68">
+        <v>2.5035714285752369E-3</v>
+      </c>
+      <c r="L27" s="20">
         <f t="shared" si="4"/>
-        <v>-2.400000000001512E-3</v>
-      </c>
-      <c r="K27" s="16">
-        <f>G27-$G$131</f>
-        <v>2.5035714285752369E-3</v>
-      </c>
-      <c r="L27" s="20">
-        <f>I27-$I$131</f>
         <v>3.1366071428597614E-3</v>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
         <v>328</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E28" s="68">
         <v>35.359099999999998</v>
@@ -7302,19 +7302,19 @@
         <v>35.359400000000001</v>
       </c>
       <c r="I28" s="68">
+        <f t="shared" si="5"/>
+        <v>-3.0000000000285354E-4</v>
+      </c>
+      <c r="J28" s="68">
+        <f t="shared" si="6"/>
+        <v>-2.9000000000038995E-3</v>
+      </c>
+      <c r="K28" s="16">
         <f t="shared" si="3"/>
-        <v>-3.0000000000285354E-4</v>
-      </c>
-      <c r="J28" s="68">
+        <v>2.2035714285723834E-3</v>
+      </c>
+      <c r="L28" s="20">
         <f t="shared" si="4"/>
-        <v>-2.9000000000038995E-3</v>
-      </c>
-      <c r="K28" s="16">
-        <f>G28-$G$131</f>
-        <v>2.2035714285723834E-3</v>
-      </c>
-      <c r="L28" s="20">
-        <f>I28-$I$131</f>
         <v>2.3366071428545204E-3</v>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
         <v>329</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E29" s="68">
         <v>35.315199999999997</v>
@@ -7345,19 +7345,19 @@
         <v>35.315399999999997</v>
       </c>
       <c r="I29" s="68">
+        <f t="shared" si="5"/>
+        <v>-1.9999999999953388E-4</v>
+      </c>
+      <c r="J29" s="68">
+        <f t="shared" si="6"/>
+        <v>-2.7999999999934744E-3</v>
+      </c>
+      <c r="K29" s="16">
         <f t="shared" si="3"/>
-        <v>-1.9999999999953388E-4</v>
-      </c>
-      <c r="J29" s="68">
+        <v>2.203571428565278E-3</v>
+      </c>
+      <c r="L29" s="20">
         <f t="shared" si="4"/>
-        <v>-2.7999999999934744E-3</v>
-      </c>
-      <c r="K29" s="16">
-        <f>G29-$G$131</f>
-        <v>2.203571428565278E-3</v>
-      </c>
-      <c r="L29" s="20">
-        <f>I29-$I$131</f>
         <v>2.4366071428578401E-3</v>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
         <v>330</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E30" s="68">
         <v>35.4161</v>
@@ -7388,19 +7388,19 @@
         <v>35.416200000000003</v>
       </c>
       <c r="I30" s="68">
+        <f t="shared" si="5"/>
+        <v>-1.0000000000331966E-4</v>
+      </c>
+      <c r="J30" s="68">
+        <f t="shared" si="6"/>
+        <v>-2.7000000000043656E-3</v>
+      </c>
+      <c r="K30" s="16">
         <f t="shared" si="3"/>
-        <v>-1.0000000000331966E-4</v>
-      </c>
-      <c r="J30" s="68">
+        <v>2.2035714285723834E-3</v>
+      </c>
+      <c r="L30" s="20">
         <f t="shared" si="4"/>
-        <v>-2.7000000000043656E-3</v>
-      </c>
-      <c r="K30" s="16">
-        <f>G30-$G$131</f>
-        <v>2.2035714285723834E-3</v>
-      </c>
-      <c r="L30" s="20">
-        <f>I30-$I$131</f>
         <v>2.5366071428540543E-3</v>
       </c>
     </row>
@@ -7415,7 +7415,7 @@
         <v>331</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E31" s="68">
         <v>35.516300000000001</v>
@@ -7431,19 +7431,19 @@
         <v>35.517000000000003</v>
       </c>
       <c r="I31" s="68">
-        <f t="shared" ref="I31:I78" si="5">E31-H31</f>
+        <f t="shared" ref="I31:I78" si="7">E31-H31</f>
         <v>-7.0000000000192131E-4</v>
       </c>
       <c r="J31" s="68">
-        <f t="shared" ref="J31:J78" si="6">F31-H31</f>
+        <f t="shared" ref="J31:J78" si="8">F31-H31</f>
         <v>-3.0000000000001137E-3</v>
       </c>
       <c r="K31" s="16">
-        <f>G31-$G$131</f>
+        <f t="shared" si="3"/>
         <v>1.9035714285695299E-3</v>
       </c>
       <c r="L31" s="20">
-        <f>I31-$I$131</f>
+        <f t="shared" si="4"/>
         <v>1.9366071428554526E-3</v>
       </c>
     </row>
@@ -7458,7 +7458,7 @@
         <v>404</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="E32" s="68">
         <v>35.5167</v>
@@ -7474,19 +7474,19 @@
         <v>35.517099999999999</v>
       </c>
       <c r="I32" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.9999999999906777E-4</v>
       </c>
       <c r="J32" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.6999999999972601E-3</v>
       </c>
       <c r="K32" s="16">
-        <f>G32-$G$131</f>
+        <f t="shared" si="3"/>
         <v>1.9035714285695299E-3</v>
       </c>
       <c r="L32" s="20">
-        <f>I32-$I$131</f>
+        <f t="shared" si="4"/>
         <v>2.2366071428583062E-3</v>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
         <v>405</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E33" s="68">
         <v>35.5366</v>
@@ -7517,19 +7517,19 @@
         <v>35.536900000000003</v>
       </c>
       <c r="I33" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.0000000000285354E-4</v>
       </c>
       <c r="J33" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.5000000000048317E-3</v>
       </c>
       <c r="K33" s="16">
-        <f>G33-$G$131</f>
+        <f t="shared" si="3"/>
         <v>1.8035714285733156E-3</v>
       </c>
       <c r="L33" s="20">
-        <f>I33-$I$131</f>
+        <f t="shared" si="4"/>
         <v>2.3366071428545204E-3</v>
       </c>
     </row>
@@ -7544,7 +7544,7 @@
         <v>406</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="E34" s="68">
         <v>35.459000000000003</v>
@@ -7560,19 +7560,19 @@
         <v>35.459600000000002</v>
       </c>
       <c r="I34" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.9999999999860165E-4</v>
       </c>
       <c r="J34" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.8000000000005798E-3</v>
       </c>
       <c r="K34" s="16">
-        <f>G34-$G$131</f>
+        <f t="shared" si="3"/>
         <v>1.8035714285733156E-3</v>
       </c>
       <c r="L34" s="20">
-        <f>I34-$I$131</f>
+        <f t="shared" si="4"/>
         <v>2.0366071428587723E-3</v>
       </c>
     </row>
@@ -7587,7 +7587,7 @@
         <v>407</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E35" s="68">
         <v>35.489699999999999</v>
@@ -7603,19 +7603,19 @@
         <v>35.489800000000002</v>
       </c>
       <c r="I35" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0000000000331966E-4</v>
       </c>
       <c r="J35" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.8000000000005798E-3</v>
       </c>
       <c r="K35" s="16">
-        <f>G35-$G$131</f>
+        <f t="shared" si="3"/>
         <v>2.3035714285685976E-3</v>
       </c>
       <c r="L35" s="20">
-        <f>I35-$I$131</f>
+        <f t="shared" si="4"/>
         <v>2.5366071428540543E-3</v>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
         <v>408</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="E36" s="68">
         <v>35.498800000000003</v>
@@ -7646,19 +7646,19 @@
         <v>35.499099999999999</v>
       </c>
       <c r="I36" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.9999999999574811E-4</v>
       </c>
       <c r="J36" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.899999999996794E-3</v>
       </c>
       <c r="K36" s="16">
-        <f>G36-$G$131</f>
+        <f t="shared" si="3"/>
         <v>2.2035714285723834E-3</v>
       </c>
       <c r="L36" s="20">
-        <f>I36-$I$131</f>
+        <f t="shared" si="4"/>
         <v>2.3366071428616258E-3</v>
       </c>
     </row>
@@ -7673,7 +7673,7 @@
         <v>409</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E37" s="68">
         <v>35.3401</v>
@@ -7689,19 +7689,19 @@
         <v>35.499000000000002</v>
       </c>
       <c r="I37" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.15890000000000271</v>
       </c>
       <c r="J37" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.8000000000005798E-3</v>
       </c>
       <c r="K37" s="16">
-        <f>G37-$G$131</f>
+        <f t="shared" si="3"/>
         <v>-0.15649642857143078</v>
       </c>
       <c r="L37" s="20">
-        <f>I37-$I$131</f>
+        <f t="shared" si="4"/>
         <v>-0.15626339285714533</v>
       </c>
     </row>
@@ -7716,7 +7716,7 @@
         <v>410</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E38" s="68">
         <v>35.247399999999999</v>
@@ -7732,19 +7732,19 @@
         <v>35.247500000000002</v>
       </c>
       <c r="I38" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0000000000331966E-4</v>
       </c>
       <c r="J38" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.0000000000001137E-3</v>
       </c>
       <c r="K38" s="16">
-        <f>G38-$G$131</f>
+        <f t="shared" si="3"/>
         <v>2.5035714285681315E-3</v>
       </c>
       <c r="L38" s="20">
-        <f>I38-$I$131</f>
+        <f t="shared" si="4"/>
         <v>2.5366071428540543E-3</v>
       </c>
     </row>
@@ -7759,7 +7759,7 @@
         <v>411</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E39" s="68">
         <v>35.251199999999997</v>
@@ -7775,19 +7775,19 @@
         <v>35.2517</v>
       </c>
       <c r="I39" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.0000000000238742E-4</v>
       </c>
       <c r="J39" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.5999999999987153E-3</v>
       </c>
       <c r="K39" s="16">
-        <f>G39-$G$131</f>
+        <f t="shared" si="3"/>
         <v>2.7035714285676654E-3</v>
       </c>
       <c r="L39" s="20">
-        <f>I39-$I$131</f>
+        <f t="shared" si="4"/>
         <v>2.1366071428549865E-3</v>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
         <v>412</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E40" s="68">
         <v>35.274799999999999</v>
@@ -7818,19 +7818,19 @@
         <v>35.276899999999998</v>
       </c>
       <c r="I40" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0999999999986585E-3</v>
       </c>
       <c r="J40" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.0999999999963279E-3</v>
       </c>
       <c r="K40" s="16">
-        <f t="shared" ref="K40:K71" si="7">G40-$G$131</f>
+        <f t="shared" ref="K40:K71" si="9">G40-$G$131</f>
         <v>6.035714285690069E-4</v>
       </c>
       <c r="L40" s="20">
-        <f t="shared" ref="L40:L71" si="8">I40-$I$131</f>
+        <f t="shared" ref="L40:L71" si="10">I40-$I$131</f>
         <v>5.3660714285871545E-4</v>
       </c>
     </row>
@@ -7845,7 +7845,7 @@
         <v>413</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="E41" s="68">
         <v>35.396299999999997</v>
@@ -7861,19 +7861,19 @@
         <v>35.397399999999998</v>
       </c>
       <c r="I41" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.1000000000009891E-3</v>
       </c>
       <c r="J41" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.0999999999963279E-3</v>
       </c>
       <c r="K41" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6035714285666763E-3</v>
       </c>
       <c r="L41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5366071428563849E-3</v>
       </c>
     </row>
@@ -7888,7 +7888,7 @@
         <v>414</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E42" s="68">
         <v>35.470100000000002</v>
@@ -7904,19 +7904,19 @@
         <v>35.471299999999999</v>
       </c>
       <c r="I42" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.1999999999972033E-3</v>
       </c>
       <c r="J42" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.0999999999963279E-3</v>
       </c>
       <c r="K42" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5035714285704621E-3</v>
       </c>
       <c r="L42" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4366071428601706E-3</v>
       </c>
     </row>
@@ -7931,7 +7931,7 @@
         <v>415</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="E43" s="68">
         <v>35.489100000000001</v>
@@ -7947,19 +7947,19 @@
         <v>35.490400000000001</v>
       </c>
       <c r="I43" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.300000000000523E-3</v>
       </c>
       <c r="J43" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.1000000000011028E-3</v>
       </c>
       <c r="K43" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.4035714285719173E-3</v>
       </c>
       <c r="L43" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.336607142856851E-3</v>
       </c>
     </row>
@@ -7974,7 +7974,7 @@
         <v>416</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E44" s="68">
         <v>35.498899999999999</v>
@@ -7983,26 +7983,26 @@
         <v>35.497100000000003</v>
       </c>
       <c r="G44" s="68">
-        <f t="shared" ref="G44:G54" si="9">E44-F44</f>
+        <f t="shared" ref="G44:G54" si="11">E44-F44</f>
         <v>1.799999999995805E-3</v>
       </c>
       <c r="H44" s="69">
         <v>35.500300000000003</v>
       </c>
       <c r="I44" s="68">
-        <f t="shared" ref="I44:I54" si="10">E44-H44</f>
+        <f t="shared" ref="I44:I54" si="12">E44-H44</f>
         <v>-1.4000000000038426E-3</v>
       </c>
       <c r="J44" s="68">
-        <f t="shared" ref="J44:J54" si="11">F44-H44</f>
+        <f t="shared" ref="J44:J54" si="13">F44-H44</f>
         <v>-3.1999999999996476E-3</v>
       </c>
       <c r="K44" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4035714285671424E-3</v>
       </c>
       <c r="L44" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2366071428535313E-3</v>
       </c>
     </row>
@@ -8017,7 +8017,7 @@
         <v>417</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="E45" s="68">
         <v>35.502000000000002</v>
@@ -8026,26 +8026,26 @@
         <v>35.5</v>
       </c>
       <c r="G45" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.0000000000024443E-3</v>
       </c>
       <c r="H45" s="69">
         <v>35.5032</v>
       </c>
       <c r="I45" s="68">
+        <f t="shared" si="12"/>
+        <v>-1.1999999999972033E-3</v>
+      </c>
+      <c r="J45" s="68">
+        <f t="shared" si="13"/>
+        <v>-3.1999999999996476E-3</v>
+      </c>
+      <c r="K45" s="16">
+        <f t="shared" si="9"/>
+        <v>1.6035714285737817E-3</v>
+      </c>
+      <c r="L45" s="20">
         <f t="shared" si="10"/>
-        <v>-1.1999999999972033E-3</v>
-      </c>
-      <c r="J45" s="68">
-        <f t="shared" si="11"/>
-        <v>-3.1999999999996476E-3</v>
-      </c>
-      <c r="K45" s="16">
-        <f t="shared" si="7"/>
-        <v>1.6035714285737817E-3</v>
-      </c>
-      <c r="L45" s="20">
-        <f t="shared" si="8"/>
         <v>1.4366071428601706E-3</v>
       </c>
     </row>
@@ -8060,7 +8060,7 @@
         <v>418</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="E46" s="68">
         <v>35.500300000000003</v>
@@ -8069,26 +8069,26 @@
         <v>35.498399999999997</v>
       </c>
       <c r="G46" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.90000000000623E-3</v>
       </c>
       <c r="H46" s="69">
         <v>35.501600000000003</v>
       </c>
       <c r="I46" s="68">
+        <f t="shared" si="12"/>
+        <v>-1.300000000000523E-3</v>
+      </c>
+      <c r="J46" s="68">
+        <f t="shared" si="13"/>
+        <v>-3.200000000006753E-3</v>
+      </c>
+      <c r="K46" s="16">
+        <f t="shared" si="9"/>
+        <v>1.5035714285775675E-3</v>
+      </c>
+      <c r="L46" s="20">
         <f t="shared" si="10"/>
-        <v>-1.300000000000523E-3</v>
-      </c>
-      <c r="J46" s="68">
-        <f t="shared" si="11"/>
-        <v>-3.200000000006753E-3</v>
-      </c>
-      <c r="K46" s="16">
-        <f t="shared" si="7"/>
-        <v>1.5035714285775675E-3</v>
-      </c>
-      <c r="L46" s="20">
-        <f t="shared" si="8"/>
         <v>1.336607142856851E-3</v>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
         <v>419</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="E47" s="68">
         <v>35.500399999999999</v>
@@ -8112,26 +8112,26 @@
         <v>35.498399999999997</v>
       </c>
       <c r="G47" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.0000000000024443E-3</v>
       </c>
       <c r="H47" s="69">
         <v>35.5015</v>
       </c>
       <c r="I47" s="68">
+        <f t="shared" si="12"/>
+        <v>-1.1000000000009891E-3</v>
+      </c>
+      <c r="J47" s="68">
+        <f t="shared" si="13"/>
+        <v>-3.1000000000034333E-3</v>
+      </c>
+      <c r="K47" s="16">
+        <f t="shared" si="9"/>
+        <v>1.6035714285737817E-3</v>
+      </c>
+      <c r="L47" s="20">
         <f t="shared" si="10"/>
-        <v>-1.1000000000009891E-3</v>
-      </c>
-      <c r="J47" s="68">
-        <f t="shared" si="11"/>
-        <v>-3.1000000000034333E-3</v>
-      </c>
-      <c r="K47" s="16">
-        <f t="shared" si="7"/>
-        <v>1.6035714285737817E-3</v>
-      </c>
-      <c r="L47" s="20">
-        <f t="shared" si="8"/>
         <v>1.5366071428563849E-3</v>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
         <v>420</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E48" s="68">
         <v>35.428600000000003</v>
@@ -8155,26 +8155,26 @@
         <v>35.426499999999997</v>
       </c>
       <c r="G48" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.1000000000057639E-3</v>
       </c>
       <c r="H48" s="69">
         <v>35.430399999999999</v>
       </c>
       <c r="I48" s="68">
+        <f t="shared" si="12"/>
+        <v>-1.799999999995805E-3</v>
+      </c>
+      <c r="J48" s="68">
+        <f t="shared" si="13"/>
+        <v>-3.9000000000015689E-3</v>
+      </c>
+      <c r="K48" s="16">
+        <f t="shared" si="9"/>
+        <v>1.7035714285771014E-3</v>
+      </c>
+      <c r="L48" s="20">
         <f t="shared" si="10"/>
-        <v>-1.799999999995805E-3</v>
-      </c>
-      <c r="J48" s="68">
-        <f t="shared" si="11"/>
-        <v>-3.9000000000015689E-3</v>
-      </c>
-      <c r="K48" s="16">
-        <f t="shared" si="7"/>
-        <v>1.7035714285771014E-3</v>
-      </c>
-      <c r="L48" s="20">
-        <f t="shared" si="8"/>
         <v>8.3660714286156899E-4</v>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
         <v>421</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E49" s="68">
         <v>35.4649</v>
@@ -8198,26 +8198,26 @@
         <v>35.462600000000002</v>
       </c>
       <c r="G49" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.2999999999981924E-3</v>
       </c>
       <c r="H49" s="69">
         <v>35.466000000000001</v>
       </c>
       <c r="I49" s="68">
+        <f t="shared" si="12"/>
+        <v>-1.1000000000009891E-3</v>
+      </c>
+      <c r="J49" s="68">
+        <f t="shared" si="13"/>
+        <v>-3.3999999999991815E-3</v>
+      </c>
+      <c r="K49" s="16">
+        <f t="shared" si="9"/>
+        <v>1.9035714285695299E-3</v>
+      </c>
+      <c r="L49" s="20">
         <f t="shared" si="10"/>
-        <v>-1.1000000000009891E-3</v>
-      </c>
-      <c r="J49" s="68">
-        <f t="shared" si="11"/>
-        <v>-3.3999999999991815E-3</v>
-      </c>
-      <c r="K49" s="16">
-        <f t="shared" si="7"/>
-        <v>1.9035714285695299E-3</v>
-      </c>
-      <c r="L49" s="20">
-        <f t="shared" si="8"/>
         <v>1.5366071428563849E-3</v>
       </c>
     </row>
@@ -8232,7 +8232,7 @@
         <v>422</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="E50" s="68">
         <v>35.4694</v>
@@ -8241,26 +8241,26 @@
         <v>35.469499999999996</v>
       </c>
       <c r="G50" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-9.9999999996214228E-5</v>
       </c>
       <c r="H50" s="69">
         <v>35.471899999999998</v>
       </c>
       <c r="I50" s="68">
+        <f t="shared" si="12"/>
+        <v>-2.4999999999977263E-3</v>
+      </c>
+      <c r="J50" s="68">
+        <f t="shared" si="13"/>
+        <v>-2.400000000001512E-3</v>
+      </c>
+      <c r="K50" s="16">
+        <f t="shared" si="9"/>
+        <v>-4.9642857142487675E-4</v>
+      </c>
+      <c r="L50" s="20">
         <f t="shared" si="10"/>
-        <v>-2.4999999999977263E-3</v>
-      </c>
-      <c r="J50" s="68">
-        <f t="shared" si="11"/>
-        <v>-2.400000000001512E-3</v>
-      </c>
-      <c r="K50" s="16">
-        <f t="shared" si="7"/>
-        <v>-4.9642857142487675E-4</v>
-      </c>
-      <c r="L50" s="20">
-        <f t="shared" si="8"/>
         <v>1.3660714285964768E-4</v>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
         <v>423</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="E51" s="68">
         <v>35.478700000000003</v>
@@ -8284,26 +8284,26 @@
         <v>35.485700000000001</v>
       </c>
       <c r="G51" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-6.9999999999978968E-3</v>
       </c>
       <c r="H51" s="69">
         <v>35.489100000000001</v>
       </c>
       <c r="I51" s="68">
+        <f t="shared" si="12"/>
+        <v>-1.0399999999997078E-2</v>
+      </c>
+      <c r="J51" s="68">
+        <f t="shared" si="13"/>
+        <v>-3.3999999999991815E-3</v>
+      </c>
+      <c r="K51" s="16">
+        <f t="shared" si="9"/>
+        <v>-7.3964285714265597E-3</v>
+      </c>
+      <c r="L51" s="20">
         <f t="shared" si="10"/>
-        <v>-1.0399999999997078E-2</v>
-      </c>
-      <c r="J51" s="68">
-        <f t="shared" si="11"/>
-        <v>-3.3999999999991815E-3</v>
-      </c>
-      <c r="K51" s="16">
-        <f t="shared" si="7"/>
-        <v>-7.3964285714265597E-3</v>
-      </c>
-      <c r="L51" s="20">
-        <f t="shared" si="8"/>
         <v>-7.7633928571397039E-3</v>
       </c>
     </row>
@@ -8318,7 +8318,7 @@
         <v>424</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="E52" s="68">
         <v>35.487400000000001</v>
@@ -8327,26 +8327,26 @@
         <v>35.485500000000002</v>
       </c>
       <c r="G52" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8999999999991246E-3</v>
       </c>
       <c r="H52" s="69">
         <v>35.488900000000001</v>
       </c>
       <c r="I52" s="68">
+        <f t="shared" si="12"/>
+        <v>-1.5000000000000568E-3</v>
+      </c>
+      <c r="J52" s="68">
+        <f t="shared" si="13"/>
+        <v>-3.3999999999991815E-3</v>
+      </c>
+      <c r="K52" s="16">
+        <f t="shared" si="9"/>
+        <v>1.5035714285704621E-3</v>
+      </c>
+      <c r="L52" s="20">
         <f t="shared" si="10"/>
-        <v>-1.5000000000000568E-3</v>
-      </c>
-      <c r="J52" s="68">
-        <f t="shared" si="11"/>
-        <v>-3.3999999999991815E-3</v>
-      </c>
-      <c r="K52" s="16">
-        <f t="shared" si="7"/>
-        <v>1.5035714285704621E-3</v>
-      </c>
-      <c r="L52" s="20">
-        <f t="shared" si="8"/>
         <v>1.1366071428573171E-3</v>
       </c>
     </row>
@@ -8361,7 +8361,7 @@
         <v>425</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E53" s="68">
         <v>35.314</v>
@@ -8370,26 +8370,26 @@
         <v>35.3125</v>
       </c>
       <c r="G53" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5000000000000568E-3</v>
       </c>
       <c r="H53" s="69">
         <v>35.315800000000003</v>
       </c>
       <c r="I53" s="68">
+        <f t="shared" si="12"/>
+        <v>-1.8000000000029104E-3</v>
+      </c>
+      <c r="J53" s="68">
+        <f t="shared" si="13"/>
+        <v>-3.3000000000029672E-3</v>
+      </c>
+      <c r="K53" s="16">
+        <f t="shared" si="9"/>
+        <v>1.1035714285713943E-3</v>
+      </c>
+      <c r="L53" s="20">
         <f t="shared" si="10"/>
-        <v>-1.8000000000029104E-3</v>
-      </c>
-      <c r="J53" s="68">
-        <f t="shared" si="11"/>
-        <v>-3.3000000000029672E-3</v>
-      </c>
-      <c r="K53" s="16">
-        <f t="shared" si="7"/>
-        <v>1.1035714285713943E-3</v>
-      </c>
-      <c r="L53" s="20">
-        <f t="shared" si="8"/>
         <v>8.3660714285446356E-4</v>
       </c>
     </row>
@@ -8404,7 +8404,7 @@
         <v>426</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E54" s="68">
         <v>35.4116</v>
@@ -8413,26 +8413,26 @@
         <v>35.409700000000001</v>
       </c>
       <c r="G54" s="68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8999999999991246E-3</v>
       </c>
       <c r="H54" s="69">
         <v>35.4131</v>
       </c>
       <c r="I54" s="68">
+        <f t="shared" si="12"/>
+        <v>-1.5000000000000568E-3</v>
+      </c>
+      <c r="J54" s="68">
+        <f t="shared" si="13"/>
+        <v>-3.3999999999991815E-3</v>
+      </c>
+      <c r="K54" s="16">
+        <f t="shared" si="9"/>
+        <v>1.5035714285704621E-3</v>
+      </c>
+      <c r="L54" s="20">
         <f t="shared" si="10"/>
-        <v>-1.5000000000000568E-3</v>
-      </c>
-      <c r="J54" s="68">
-        <f t="shared" si="11"/>
-        <v>-3.3999999999991815E-3</v>
-      </c>
-      <c r="K54" s="16">
-        <f t="shared" si="7"/>
-        <v>1.5035714285704621E-3</v>
-      </c>
-      <c r="L54" s="20">
-        <f t="shared" si="8"/>
         <v>1.1366071428573171E-3</v>
       </c>
     </row>
@@ -8447,7 +8447,7 @@
         <v>427</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="E55" s="68">
         <v>35.436</v>
@@ -8456,26 +8456,26 @@
         <v>35.4343</v>
       </c>
       <c r="G55" s="68">
-        <f t="shared" ref="G55:G77" si="12">E55-F55</f>
+        <f t="shared" ref="G55:G77" si="14">E55-F55</f>
         <v>1.6999999999995907E-3</v>
       </c>
       <c r="H55" s="69">
         <v>35.437800000000003</v>
       </c>
       <c r="I55" s="68">
-        <f t="shared" ref="I55:I77" si="13">E55-H55</f>
+        <f t="shared" ref="I55:I77" si="15">E55-H55</f>
         <v>-1.8000000000029104E-3</v>
       </c>
       <c r="J55" s="68">
-        <f t="shared" ref="J55:J77" si="14">F55-H55</f>
+        <f t="shared" ref="J55:J77" si="16">F55-H55</f>
         <v>-3.5000000000025011E-3</v>
       </c>
       <c r="K55" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3035714285709282E-3</v>
       </c>
       <c r="L55" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.3660714285446356E-4</v>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
         <v>740</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E56" s="68">
         <v>35.478700000000003</v>
@@ -8499,26 +8499,26 @@
         <v>35.476999999999997</v>
       </c>
       <c r="G56" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.7000000000066962E-3</v>
       </c>
       <c r="H56" s="69">
         <v>35.480499999999999</v>
       </c>
       <c r="I56" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.799999999995805E-3</v>
       </c>
       <c r="J56" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.5000000000025011E-3</v>
       </c>
       <c r="K56" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3035714285780336E-3</v>
       </c>
       <c r="L56" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.3660714286156899E-4</v>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
         <v>741</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E57" s="68">
         <v>35.487099999999998</v>
@@ -8542,26 +8542,26 @@
         <v>35.485599999999998</v>
       </c>
       <c r="G57" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5000000000000568E-3</v>
       </c>
       <c r="H57" s="69">
         <v>35.488700000000001</v>
       </c>
       <c r="I57" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.6000000000033765E-3</v>
       </c>
       <c r="J57" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.1000000000034333E-3</v>
       </c>
       <c r="K57" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1035714285713943E-3</v>
       </c>
       <c r="L57" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0366071428539974E-3</v>
       </c>
     </row>
@@ -8576,7 +8576,7 @@
         <v>742</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E58" s="68">
         <v>35.487099999999998</v>
@@ -8585,26 +8585,26 @@
         <v>35.485500000000002</v>
       </c>
       <c r="G58" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5999999999962711E-3</v>
       </c>
       <c r="H58" s="69">
         <v>35.488900000000001</v>
       </c>
       <c r="I58" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.8000000000029104E-3</v>
       </c>
       <c r="J58" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.3999999999991815E-3</v>
       </c>
       <c r="K58" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2035714285676086E-3</v>
       </c>
       <c r="L58" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.3660714285446356E-4</v>
       </c>
     </row>
@@ -8619,7 +8619,7 @@
         <v>743</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E59" s="68">
         <v>35.487299999999998</v>
@@ -8628,26 +8628,26 @@
         <v>35.4861</v>
       </c>
       <c r="G59" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1999999999972033E-3</v>
       </c>
       <c r="H59" s="69">
         <v>35.4895</v>
       </c>
       <c r="I59" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.2000000000019782E-3</v>
       </c>
       <c r="J59" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.3999999999991815E-3</v>
       </c>
       <c r="K59" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.0357142856854078E-4</v>
       </c>
       <c r="L59" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.366071428553958E-4</v>
       </c>
     </row>
@@ -8662,7 +8662,7 @@
         <v>744</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E60" s="68">
         <v>35.487200000000001</v>
@@ -8671,26 +8671,26 @@
         <v>35.4861</v>
       </c>
       <c r="G60" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1000000000009891E-3</v>
       </c>
       <c r="H60" s="69">
         <v>35.489400000000003</v>
       </c>
       <c r="I60" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.2000000000019782E-3</v>
       </c>
       <c r="J60" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.3000000000029672E-3</v>
       </c>
       <c r="K60" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0357142857232656E-4</v>
       </c>
       <c r="L60" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.366071428553958E-4</v>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
         <v>745</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="E61" s="68">
         <v>35.321199999999997</v>
@@ -8714,26 +8714,26 @@
         <v>35.323300000000003</v>
       </c>
       <c r="G61" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-2.1000000000057639E-3</v>
       </c>
       <c r="H61" s="69">
         <v>35.326799999999999</v>
       </c>
       <c r="I61" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-5.6000000000011596E-3</v>
       </c>
       <c r="J61" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.4999999999953957E-3</v>
       </c>
       <c r="K61" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-2.4964285714344264E-3</v>
       </c>
       <c r="L61" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.9633928571437857E-3</v>
       </c>
     </row>
@@ -8748,7 +8748,7 @@
         <v>746</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="E62" s="68">
         <v>35.414400000000001</v>
@@ -8757,26 +8757,26 @@
         <v>35.413499999999999</v>
       </c>
       <c r="G62" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.0000000000145519E-4</v>
       </c>
       <c r="H62" s="69">
         <v>35.417000000000002</v>
       </c>
       <c r="I62" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-2.6000000000010459E-3</v>
       </c>
       <c r="J62" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.5000000000025011E-3</v>
       </c>
       <c r="K62" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.0357142857279267E-4</v>
       </c>
       <c r="L62" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.6607142856328028E-5</v>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
         <v>747</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="E63" s="68">
         <v>35.453299999999999</v>
@@ -8800,26 +8800,26 @@
         <v>35.451700000000002</v>
       </c>
       <c r="G63" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.5999999999962711E-3</v>
       </c>
       <c r="H63" s="69">
         <v>35.455100000000002</v>
       </c>
       <c r="I63" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.8000000000029104E-3</v>
       </c>
       <c r="J63" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.3999999999991815E-3</v>
       </c>
       <c r="K63" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2035714285676086E-3</v>
       </c>
       <c r="L63" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.3660714285446356E-4</v>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
         <v>748</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E64" s="68">
         <v>35.445500000000003</v>
@@ -8843,26 +8843,26 @@
         <v>35.443800000000003</v>
       </c>
       <c r="G64" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.6999999999995907E-3</v>
       </c>
       <c r="H64" s="69">
         <v>35.447099999999999</v>
       </c>
       <c r="I64" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.5999999999962711E-3</v>
       </c>
       <c r="J64" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.2999999999958618E-3</v>
       </c>
       <c r="K64" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.3035714285709282E-3</v>
       </c>
       <c r="L64" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0366071428611029E-3</v>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
         <v>749</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E65" s="68">
         <v>35.473500000000001</v>
@@ -8886,26 +8886,26 @@
         <v>35.472099999999998</v>
       </c>
       <c r="G65" s="68">
-        <f t="shared" ref="G65:G76" si="15">E65-F65</f>
+        <f t="shared" ref="G65:G76" si="17">E65-F65</f>
         <v>1.4000000000038426E-3</v>
       </c>
       <c r="H65" s="69">
         <v>35.4756</v>
       </c>
       <c r="I65" s="68">
-        <f t="shared" ref="I65:I76" si="16">E65-H65</f>
+        <f t="shared" ref="I65:I76" si="18">E65-H65</f>
         <v>-2.0999999999986585E-3</v>
       </c>
       <c r="J65" s="68">
-        <f t="shared" ref="J65:J76" si="17">F65-H65</f>
+        <f t="shared" ref="J65:J76" si="19">F65-H65</f>
         <v>-3.5000000000025011E-3</v>
       </c>
       <c r="K65" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0035714285751801E-3</v>
       </c>
       <c r="L65" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.3660714285871545E-4</v>
       </c>
     </row>
@@ -8920,7 +8920,7 @@
         <v>750</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E66" s="68">
         <v>35.506399999999999</v>
@@ -8929,26 +8929,26 @@
         <v>35.500399999999999</v>
       </c>
       <c r="G66" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.0000000000002274E-3</v>
       </c>
       <c r="H66" s="69">
         <v>35.501600000000003</v>
       </c>
       <c r="I66" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.7999999999959186E-3</v>
       </c>
       <c r="J66" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.2000000000043087E-3</v>
       </c>
       <c r="K66" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.6035714285715644E-3</v>
       </c>
       <c r="L66" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.436607142853293E-3</v>
       </c>
     </row>
@@ -8963,7 +8963,7 @@
         <v>751</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="E67" s="68">
         <v>35.5533</v>
@@ -8972,26 +8972,26 @@
         <v>35.552399999999999</v>
       </c>
       <c r="G67" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.0000000000145519E-4</v>
       </c>
       <c r="H67" s="69">
         <v>35.555999999999997</v>
       </c>
       <c r="I67" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-2.6999999999972601E-3</v>
       </c>
       <c r="J67" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-3.5999999999987153E-3</v>
       </c>
       <c r="K67" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.0357142857279267E-4</v>
       </c>
       <c r="L67" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-6.33928571398862E-5</v>
       </c>
     </row>
@@ -9006,7 +9006,7 @@
         <v>752</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E68" s="68">
         <v>35.557299999999998</v>
@@ -9015,26 +9015,26 @@
         <v>35.555700000000002</v>
       </c>
       <c r="G68" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.5999999999962711E-3</v>
       </c>
       <c r="H68" s="69">
         <v>35.559100000000001</v>
       </c>
       <c r="I68" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1.8000000000029104E-3</v>
       </c>
       <c r="J68" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-3.3999999999991815E-3</v>
       </c>
       <c r="K68" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2035714285676086E-3</v>
       </c>
       <c r="L68" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.3660714285446356E-4</v>
       </c>
     </row>
@@ -9049,7 +9049,7 @@
         <v>753</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="E69" s="68">
         <v>35.556800000000003</v>
@@ -9058,26 +9058,26 @@
         <v>35.555599999999998</v>
       </c>
       <c r="G69" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.2000000000043087E-3</v>
       </c>
       <c r="H69" s="69">
         <v>35.558999999999997</v>
       </c>
       <c r="I69" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-2.1999999999948727E-3</v>
       </c>
       <c r="J69" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-3.3999999999991815E-3</v>
       </c>
       <c r="K69" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.0357142857564621E-4</v>
       </c>
       <c r="L69" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.3660714286250122E-4</v>
       </c>
     </row>
@@ -9092,7 +9092,7 @@
         <v>754</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="E70" s="68">
         <v>34.897799999999997</v>
@@ -9101,26 +9101,26 @@
         <v>34.896700000000003</v>
       </c>
       <c r="G70" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0999999999938836E-3</v>
       </c>
       <c r="H70" s="69">
         <v>34.898099999999999</v>
       </c>
       <c r="I70" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-3.0000000000285354E-4</v>
       </c>
       <c r="J70" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1.3999999999967372E-3</v>
       </c>
       <c r="K70" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.0357142856522113E-4</v>
       </c>
       <c r="L70" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3366071428545204E-3</v>
       </c>
     </row>
@@ -9135,7 +9135,7 @@
         <v>755</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E71" s="68">
         <v>34.944800000000001</v>
@@ -9144,26 +9144,26 @@
         <v>34.943199999999997</v>
       </c>
       <c r="G71" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.6000000000033765E-3</v>
       </c>
       <c r="H71" s="69">
         <v>34.945999999999998</v>
       </c>
       <c r="I71" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1.1999999999972033E-3</v>
       </c>
       <c r="J71" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-2.8000000000005798E-3</v>
       </c>
       <c r="K71" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.203571428574714E-3</v>
       </c>
       <c r="L71" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4366071428601706E-3</v>
       </c>
     </row>
@@ -9178,7 +9178,7 @@
         <v>756</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="E72" s="68">
         <v>34.9283</v>
@@ -9187,26 +9187,26 @@
         <v>34.926400000000001</v>
       </c>
       <c r="G72" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.8999999999991246E-3</v>
       </c>
       <c r="H72" s="69">
         <v>34.929600000000001</v>
       </c>
       <c r="I72" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1.300000000000523E-3</v>
       </c>
       <c r="J72" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-3.1999999999996476E-3</v>
       </c>
       <c r="K72" s="16">
-        <f t="shared" ref="K72:K103" si="18">G72-$G$131</f>
+        <f t="shared" ref="K72:K103" si="20">G72-$G$131</f>
         <v>1.5035714285704621E-3</v>
       </c>
       <c r="L72" s="20">
-        <f t="shared" ref="L72:L103" si="19">I72-$I$131</f>
+        <f t="shared" ref="L72:L103" si="21">I72-$I$131</f>
         <v>1.336607142856851E-3</v>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
         <v>757</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E73" s="68">
         <v>35.2577</v>
@@ -9230,26 +9230,26 @@
         <v>35.256900000000002</v>
       </c>
       <c r="G73" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.9999999999813554E-4</v>
       </c>
       <c r="H73" s="69">
         <v>35.260399999999997</v>
       </c>
       <c r="I73" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-2.6999999999972601E-3</v>
       </c>
       <c r="J73" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-3.4999999999953957E-3</v>
       </c>
       <c r="K73" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.0357142856947296E-4</v>
       </c>
       <c r="L73" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-6.33928571398862E-5</v>
       </c>
     </row>
@@ -9264,7 +9264,7 @@
         <v>758</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="E74" s="68">
         <v>35.288899999999998</v>
@@ -9273,26 +9273,26 @@
         <v>35.288899999999998</v>
       </c>
       <c r="G74" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H74" s="69">
         <v>35.292299999999997</v>
       </c>
       <c r="I74" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-3.3999999999991815E-3</v>
       </c>
       <c r="J74" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-3.3999999999991815E-3</v>
       </c>
       <c r="K74" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-3.9642857142866257E-4</v>
       </c>
       <c r="L74" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-7.6339285714180751E-4</v>
       </c>
     </row>
@@ -9307,7 +9307,7 @@
         <v>759</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="E75" s="68">
         <v>35.412599999999998</v>
@@ -9316,26 +9316,26 @@
         <v>35.410800000000002</v>
       </c>
       <c r="G75" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.799999999995805E-3</v>
       </c>
       <c r="H75" s="69">
         <v>35.414499999999997</v>
       </c>
       <c r="I75" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1.8999999999991246E-3</v>
       </c>
       <c r="J75" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-3.6999999999949296E-3</v>
       </c>
       <c r="K75" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.4035714285671424E-3</v>
       </c>
       <c r="L75" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.3660714285824934E-4</v>
       </c>
     </row>
@@ -9350,7 +9350,7 @@
         <v>760</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E76" s="68">
         <v>35.500500000000002</v>
@@ -9359,26 +9359,26 @@
         <v>35.498899999999999</v>
       </c>
       <c r="G76" s="68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.6000000000033765E-3</v>
       </c>
       <c r="H76" s="69">
         <v>35.502400000000002</v>
       </c>
       <c r="I76" s="68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1.8999999999991246E-3</v>
       </c>
       <c r="J76" s="68">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-3.5000000000025011E-3</v>
       </c>
       <c r="K76" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.203571428574714E-3</v>
       </c>
       <c r="L76" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.3660714285824934E-4</v>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
         <v>761</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E77" s="68">
         <v>35.5062</v>
@@ -9402,26 +9402,26 @@
         <v>35.5045</v>
       </c>
       <c r="G77" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.6999999999995907E-3</v>
       </c>
       <c r="H77" s="69">
         <v>35.508099999999999</v>
       </c>
       <c r="I77" s="68">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>-1.8999999999991246E-3</v>
       </c>
       <c r="J77" s="68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-3.5999999999987153E-3</v>
       </c>
       <c r="K77" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3035714285709282E-3</v>
       </c>
       <c r="L77" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.3660714285824934E-4</v>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
         <v>762</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="E78" s="68">
         <v>35.506500000000003</v>
@@ -9452,19 +9452,19 @@
         <v>35.508600000000001</v>
       </c>
       <c r="I78" s="68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0999999999986585E-3</v>
       </c>
       <c r="J78" s="68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.5999999999987153E-3</v>
       </c>
       <c r="K78" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1035714285713943E-3</v>
       </c>
       <c r="L78" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.3660714285871545E-4</v>
       </c>
     </row>
@@ -9479,7 +9479,7 @@
         <v>763</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E79" s="68">
         <v>35.506799999999998</v>
@@ -9503,11 +9503,11 @@
         <v>-3.5999999999987153E-3</v>
       </c>
       <c r="K79" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>9.0357142857186044E-4</v>
       </c>
       <c r="L79" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.3660714285918157E-4</v>
       </c>
     </row>
@@ -9522,7 +9522,7 @@
         <v>716</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="E80" s="68">
         <v>34.8979</v>
@@ -9546,11 +9546,11 @@
         <v>-1.8000000000029104E-3</v>
       </c>
       <c r="K80" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.1035714285713943E-3</v>
       </c>
       <c r="L80" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.3366071428545204E-3</v>
       </c>
     </row>
@@ -9565,7 +9565,7 @@
         <v>717</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E81" s="68">
         <v>34.938800000000001</v>
@@ -9574,26 +9574,26 @@
         <v>34.936599999999999</v>
       </c>
       <c r="G81" s="68">
-        <f t="shared" ref="G81:G83" si="20">E81-F81</f>
+        <f t="shared" ref="G81:G83" si="22">E81-F81</f>
         <v>2.2000000000019782E-3</v>
       </c>
       <c r="H81" s="69">
         <v>34.939100000000003</v>
       </c>
       <c r="I81" s="68">
-        <f t="shared" ref="I81:I83" si="21">E81-H81</f>
+        <f t="shared" ref="I81:I83" si="23">E81-H81</f>
         <v>-3.0000000000285354E-4</v>
       </c>
       <c r="J81" s="68">
-        <f t="shared" ref="J81:J83" si="22">F81-H81</f>
+        <f t="shared" ref="J81:J83" si="24">F81-H81</f>
         <v>-2.5000000000048317E-3</v>
       </c>
       <c r="K81" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8035714285733156E-3</v>
       </c>
       <c r="L81" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.3366071428545204E-3</v>
       </c>
     </row>
@@ -9608,7 +9608,7 @@
         <v>718</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="E82" s="68">
         <v>34.9467</v>
@@ -9617,26 +9617,26 @@
         <v>34.944699999999997</v>
       </c>
       <c r="G82" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.0000000000024443E-3</v>
       </c>
       <c r="H82" s="69">
         <v>34.947600000000001</v>
       </c>
       <c r="I82" s="68">
+        <f t="shared" si="23"/>
+        <v>-9.0000000000145519E-4</v>
+      </c>
+      <c r="J82" s="68">
+        <f t="shared" si="24"/>
+        <v>-2.9000000000038995E-3</v>
+      </c>
+      <c r="K82" s="16">
+        <f t="shared" si="20"/>
+        <v>1.6035714285737817E-3</v>
+      </c>
+      <c r="L82" s="20">
         <f t="shared" si="21"/>
-        <v>-9.0000000000145519E-4</v>
-      </c>
-      <c r="J82" s="68">
-        <f t="shared" si="22"/>
-        <v>-2.9000000000038995E-3</v>
-      </c>
-      <c r="K82" s="16">
-        <f t="shared" si="18"/>
-        <v>1.6035714285737817E-3</v>
-      </c>
-      <c r="L82" s="20">
-        <f t="shared" si="19"/>
         <v>1.7366071428559188E-3</v>
       </c>
     </row>
@@ -9651,7 +9651,7 @@
         <v>719</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="E83" s="68">
         <v>34.930500000000002</v>
@@ -9660,26 +9660,26 @@
         <v>34.928100000000001</v>
       </c>
       <c r="G83" s="68">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.400000000001512E-3</v>
       </c>
       <c r="H83" s="69">
         <v>34.9315</v>
       </c>
       <c r="I83" s="68">
+        <f t="shared" si="23"/>
+        <v>-9.9999999999766942E-4</v>
+      </c>
+      <c r="J83" s="68">
+        <f t="shared" si="24"/>
+        <v>-3.3999999999991815E-3</v>
+      </c>
+      <c r="K83" s="16">
+        <f t="shared" si="20"/>
+        <v>2.0035714285728495E-3</v>
+      </c>
+      <c r="L83" s="20">
         <f t="shared" si="21"/>
-        <v>-9.9999999999766942E-4</v>
-      </c>
-      <c r="J83" s="68">
-        <f t="shared" si="22"/>
-        <v>-3.3999999999991815E-3</v>
-      </c>
-      <c r="K83" s="16">
-        <f t="shared" si="18"/>
-        <v>2.0035714285728495E-3</v>
-      </c>
-      <c r="L83" s="20">
-        <f t="shared" si="19"/>
         <v>1.6366071428597045E-3</v>
       </c>
     </row>
@@ -9693,8 +9693,8 @@
       <c r="C84" s="15">
         <v>720</v>
       </c>
-      <c r="D84" s="15" t="s">
-        <v>110</v>
+      <c r="D84" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="E84" s="68">
         <v>35.308799999999998</v>
@@ -9718,11 +9718,11 @@
         <v>-3.9999999999977831E-3</v>
       </c>
       <c r="K84" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.6035714285666763E-3</v>
       </c>
       <c r="L84" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.3660714285492968E-4</v>
       </c>
     </row>
@@ -9737,7 +9737,7 @@
         <v>721</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E85" s="68">
         <v>35.323</v>
@@ -9746,26 +9746,26 @@
         <v>35.320700000000002</v>
       </c>
       <c r="G85" s="68">
-        <f t="shared" ref="G85:G92" si="23">E85-F85</f>
+        <f t="shared" ref="G85:G92" si="25">E85-F85</f>
         <v>2.2999999999981924E-3</v>
       </c>
       <c r="H85" s="69">
         <v>35.324599999999997</v>
       </c>
       <c r="I85" s="68">
-        <f t="shared" ref="I85:I92" si="24">E85-H85</f>
+        <f t="shared" ref="I85:I92" si="26">E85-H85</f>
         <v>-1.5999999999962711E-3</v>
       </c>
       <c r="J85" s="68">
-        <f t="shared" ref="J85:J92" si="25">F85-H85</f>
+        <f t="shared" ref="J85:J92" si="27">F85-H85</f>
         <v>-3.8999999999944635E-3</v>
       </c>
       <c r="K85" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.9035714285695299E-3</v>
       </c>
       <c r="L85" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0366071428611029E-3</v>
       </c>
     </row>
@@ -9780,7 +9780,7 @@
         <v>722</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="E86" s="68">
         <v>35.414000000000001</v>
@@ -9789,26 +9789,26 @@
         <v>35.411200000000001</v>
       </c>
       <c r="G86" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.8000000000005798E-3</v>
       </c>
       <c r="H86" s="69">
         <v>35.415199999999999</v>
       </c>
       <c r="I86" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-1.1999999999972033E-3</v>
       </c>
       <c r="J86" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.9999999999977831E-3</v>
       </c>
       <c r="K86" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.4035714285719173E-3</v>
       </c>
       <c r="L86" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.4366071428601706E-3</v>
       </c>
     </row>
@@ -9823,7 +9823,7 @@
         <v>723</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="E87" s="68">
         <v>35.4878</v>
@@ -9832,26 +9832,26 @@
         <v>35.485900000000001</v>
       </c>
       <c r="G87" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.8999999999991246E-3</v>
       </c>
       <c r="H87" s="69">
         <v>35.489800000000002</v>
       </c>
       <c r="I87" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-2.0000000000024443E-3</v>
       </c>
       <c r="J87" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.9000000000015689E-3</v>
       </c>
       <c r="K87" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.5035714285704621E-3</v>
       </c>
       <c r="L87" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.3660714285492968E-4</v>
       </c>
     </row>
@@ -9866,7 +9866,7 @@
         <v>724</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E88" s="68">
         <v>35.5092</v>
@@ -9875,26 +9875,26 @@
         <v>35.507100000000001</v>
       </c>
       <c r="G88" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.0999999999986585E-3</v>
       </c>
       <c r="H88" s="69">
         <v>35.511000000000003</v>
       </c>
       <c r="I88" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-1.8000000000029104E-3</v>
       </c>
       <c r="J88" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.9000000000015689E-3</v>
       </c>
       <c r="K88" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.703571428569996E-3</v>
       </c>
       <c r="L88" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8.3660714285446356E-4</v>
       </c>
     </row>
@@ -9909,7 +9909,7 @@
         <v>725</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="E89" s="68">
         <v>35.509</v>
@@ -9918,26 +9918,26 @@
         <v>35.506999999999998</v>
       </c>
       <c r="G89" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.0000000000024443E-3</v>
       </c>
       <c r="H89" s="69">
         <v>35.510899999999999</v>
       </c>
       <c r="I89" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-1.8999999999991246E-3</v>
       </c>
       <c r="J89" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.9000000000015689E-3</v>
       </c>
       <c r="K89" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.6035714285737817E-3</v>
       </c>
       <c r="L89" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.3660714285824934E-4</v>
       </c>
     </row>
@@ -9952,7 +9952,7 @@
         <v>726</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="E90" s="68">
         <v>35.510100000000001</v>
@@ -9961,26 +9961,26 @@
         <v>35.507599999999996</v>
       </c>
       <c r="G90" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.5000000000048317E-3</v>
       </c>
       <c r="H90" s="69">
         <v>35.511299999999999</v>
       </c>
       <c r="I90" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-1.1999999999972033E-3</v>
       </c>
       <c r="J90" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.700000000002035E-3</v>
       </c>
       <c r="K90" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.1035714285761692E-3</v>
       </c>
       <c r="L90" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.4366071428601706E-3</v>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
         <v>727</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="E91" s="68">
         <v>34.898299999999999</v>
@@ -10004,26 +10004,26 @@
         <v>34.896099999999997</v>
       </c>
       <c r="G91" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.2000000000019782E-3</v>
       </c>
       <c r="H91" s="69">
         <v>34.898000000000003</v>
       </c>
       <c r="I91" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>2.9999999999574811E-4</v>
       </c>
       <c r="J91" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-1.90000000000623E-3</v>
       </c>
       <c r="K91" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8035714285733156E-3</v>
       </c>
       <c r="L91" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.9366071428531221E-3</v>
       </c>
     </row>
@@ -10038,7 +10038,7 @@
         <v>728</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="E92" s="68">
         <v>34.9193</v>
@@ -10047,26 +10047,26 @@
         <v>34.917099999999998</v>
       </c>
       <c r="G92" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.2000000000019782E-3</v>
       </c>
       <c r="H92" s="69">
         <v>34.920099999999998</v>
       </c>
       <c r="I92" s="68">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-7.9999999999813554E-4</v>
       </c>
       <c r="J92" s="68">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3.0000000000001137E-3</v>
       </c>
       <c r="K92" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8035714285733156E-3</v>
       </c>
       <c r="L92" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.8366071428592384E-3</v>
       </c>
     </row>
@@ -10081,7 +10081,7 @@
         <v>729</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E93" s="68">
         <v>34.937800000000003</v>
@@ -10090,26 +10090,26 @@
         <v>34.935899999999997</v>
       </c>
       <c r="G93" s="68">
-        <f t="shared" ref="G93:G121" si="26">E93-F93</f>
+        <f t="shared" ref="G93:G121" si="28">E93-F93</f>
         <v>1.90000000000623E-3</v>
       </c>
       <c r="H93" s="69">
         <v>34.938800000000001</v>
       </c>
       <c r="I93" s="68">
-        <f t="shared" ref="I93:I121" si="27">E93-H93</f>
+        <f t="shared" ref="I93:I121" si="29">E93-H93</f>
         <v>-9.9999999999766942E-4</v>
       </c>
       <c r="J93" s="68">
-        <f t="shared" ref="J93:J121" si="28">F93-H93</f>
+        <f t="shared" ref="J93:J121" si="30">F93-H93</f>
         <v>-2.9000000000038995E-3</v>
       </c>
       <c r="K93" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.5035714285775675E-3</v>
       </c>
       <c r="L93" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.6366071428597045E-3</v>
       </c>
     </row>
@@ -10124,7 +10124,7 @@
         <v>730</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="E94" s="68">
         <v>34.937199999999997</v>
@@ -10133,26 +10133,26 @@
         <v>34.935200000000002</v>
       </c>
       <c r="G94" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.9999999999953388E-3</v>
       </c>
       <c r="H94" s="69">
         <v>34.938800000000001</v>
       </c>
       <c r="I94" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.6000000000033765E-3</v>
       </c>
       <c r="J94" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.5999999999987153E-3</v>
       </c>
       <c r="K94" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.6035714285666763E-3</v>
       </c>
       <c r="L94" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0366071428539974E-3</v>
       </c>
     </row>
@@ -10167,7 +10167,7 @@
         <v>731</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="E95" s="68">
         <v>34.959800000000001</v>
@@ -10176,26 +10176,26 @@
         <v>34.956499999999998</v>
       </c>
       <c r="G95" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>3.3000000000029672E-3</v>
       </c>
       <c r="H95" s="69">
         <v>34.9604</v>
       </c>
       <c r="I95" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-5.9999999999860165E-4</v>
       </c>
       <c r="J95" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.9000000000015689E-3</v>
       </c>
       <c r="K95" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.9035714285743047E-3</v>
       </c>
       <c r="L95" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.0366071428587723E-3</v>
       </c>
     </row>
@@ -10210,7 +10210,7 @@
         <v>732</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E96" s="68">
         <v>35.371099999999998</v>
@@ -10219,26 +10219,26 @@
         <v>35.369100000000003</v>
       </c>
       <c r="G96" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.9999999999953388E-3</v>
       </c>
       <c r="H96" s="69">
         <v>35.372999999999998</v>
       </c>
       <c r="I96" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.8999999999991246E-3</v>
       </c>
       <c r="J96" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.8999999999944635E-3</v>
       </c>
       <c r="K96" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.6035714285666763E-3</v>
       </c>
       <c r="L96" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>7.3660714285824934E-4</v>
       </c>
     </row>
@@ -10253,7 +10253,7 @@
         <v>733</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="E97" s="68">
         <v>35.433399999999999</v>
@@ -10262,26 +10262,26 @@
         <v>35.430799999999998</v>
       </c>
       <c r="G97" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.6000000000010459E-3</v>
       </c>
       <c r="H97" s="69">
         <v>35.434600000000003</v>
       </c>
       <c r="I97" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.2000000000043087E-3</v>
       </c>
       <c r="J97" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.8000000000053547E-3</v>
       </c>
       <c r="K97" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.2035714285723834E-3</v>
       </c>
       <c r="L97" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.4366071428530652E-3</v>
       </c>
     </row>
@@ -10296,7 +10296,7 @@
         <v>734</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="E98" s="68">
         <v>35.508000000000003</v>
@@ -10305,26 +10305,26 @@
         <v>35.506300000000003</v>
       </c>
       <c r="G98" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.6999999999995907E-3</v>
       </c>
       <c r="H98" s="69">
         <v>35.510100000000001</v>
       </c>
       <c r="I98" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-2.0999999999986585E-3</v>
       </c>
       <c r="J98" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.7999999999982492E-3</v>
       </c>
       <c r="K98" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3035714285709282E-3</v>
       </c>
       <c r="L98" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.3660714285871545E-4</v>
       </c>
     </row>
@@ -10339,7 +10339,7 @@
         <v>735</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E99" s="68">
         <v>35.523699999999998</v>
@@ -10348,26 +10348,26 @@
         <v>35.521299999999997</v>
       </c>
       <c r="G99" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.400000000001512E-3</v>
       </c>
       <c r="H99" s="69">
         <v>35.525300000000001</v>
       </c>
       <c r="I99" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.6000000000033765E-3</v>
       </c>
       <c r="J99" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-4.0000000000048885E-3</v>
       </c>
       <c r="K99" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0035714285728495E-3</v>
       </c>
       <c r="L99" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0366071428539974E-3</v>
       </c>
     </row>
@@ -10382,7 +10382,7 @@
         <v>736</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="E100" s="68">
         <v>35.522799999999997</v>
@@ -10391,26 +10391,26 @@
         <v>35.520299999999999</v>
       </c>
       <c r="G100" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.4999999999977263E-3</v>
       </c>
       <c r="H100" s="69">
         <v>35.5244</v>
       </c>
       <c r="I100" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.6000000000033765E-3</v>
       </c>
       <c r="J100" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-4.1000000000011028E-3</v>
       </c>
       <c r="K100" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.1035714285690637E-3</v>
       </c>
       <c r="L100" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.0366071428539974E-3</v>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
         <v>737</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="E101" s="68">
         <v>35.524900000000002</v>
@@ -10434,26 +10434,26 @@
         <v>35.523000000000003</v>
       </c>
       <c r="G101" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8999999999991246E-3</v>
       </c>
       <c r="H101" s="69">
         <v>35.526899999999998</v>
       </c>
       <c r="I101" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.9999999999953388E-3</v>
       </c>
       <c r="J101" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.8999999999944635E-3</v>
       </c>
       <c r="K101" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.5035714285704621E-3</v>
       </c>
       <c r="L101" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.3660714286203511E-4</v>
       </c>
     </row>
@@ -10468,7 +10468,7 @@
         <v>738</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="E102" s="68">
         <v>35.526200000000003</v>
@@ -10477,26 +10477,26 @@
         <v>35.5242</v>
       </c>
       <c r="G102" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.0000000000024443E-3</v>
       </c>
       <c r="H102" s="69">
         <v>35.527900000000002</v>
       </c>
       <c r="I102" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.6999999999995907E-3</v>
       </c>
       <c r="J102" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.700000000002035E-3</v>
       </c>
       <c r="K102" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.6035714285737817E-3</v>
       </c>
       <c r="L102" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>9.3660714285778322E-4</v>
       </c>
     </row>
@@ -10511,7 +10511,7 @@
         <v>739</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="E103" s="68">
         <v>35.524900000000002</v>
@@ -10520,26 +10520,26 @@
         <v>35.523000000000003</v>
       </c>
       <c r="G103" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.8999999999991246E-3</v>
       </c>
       <c r="H103" s="69">
         <v>35.526899999999998</v>
       </c>
       <c r="I103" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-1.9999999999953388E-3</v>
       </c>
       <c r="J103" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.8999999999944635E-3</v>
       </c>
       <c r="K103" s="16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.5035714285704621E-3</v>
       </c>
       <c r="L103" s="20">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>6.3660714286203511E-4</v>
       </c>
     </row>
@@ -10554,7 +10554,7 @@
         <v>1028</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="E104" s="68">
         <v>35.513300000000001</v>
@@ -10563,26 +10563,26 @@
         <v>35.5122</v>
       </c>
       <c r="G104" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1000000000009891E-3</v>
       </c>
       <c r="H104" s="69">
         <v>35.516100000000002</v>
       </c>
       <c r="I104" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-2.8000000000005798E-3</v>
       </c>
       <c r="J104" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.9000000000015689E-3</v>
       </c>
       <c r="K104" s="16">
-        <f t="shared" ref="K104:K117" si="29">G104-$G$131</f>
+        <f t="shared" ref="K104:K117" si="31">G104-$G$131</f>
         <v>7.0357142857232656E-4</v>
       </c>
       <c r="L104" s="20">
-        <f t="shared" ref="L104:L117" si="30">I104-$I$131</f>
+        <f t="shared" ref="L104:L117" si="32">I104-$I$131</f>
         <v>-1.6339285714320586E-4</v>
       </c>
     </row>
@@ -10597,7 +10597,7 @@
         <v>1029</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="E105" s="68">
         <v>35.563600000000001</v>
@@ -10606,26 +10606,26 @@
         <v>35.562899999999999</v>
       </c>
       <c r="G105" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>7.0000000000192131E-4</v>
       </c>
       <c r="H105" s="69">
         <v>35.566800000000001</v>
       </c>
       <c r="I105" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-3.1999999999996476E-3</v>
       </c>
       <c r="J105" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.9000000000015689E-3</v>
       </c>
       <c r="K105" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.0357142857325873E-4</v>
       </c>
       <c r="L105" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-5.6339285714227362E-4</v>
       </c>
     </row>
@@ -10640,7 +10640,7 @@
         <v>1030</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="E106" s="68">
         <v>35.567</v>
@@ -10649,26 +10649,26 @@
         <v>35.566899999999997</v>
       </c>
       <c r="G106" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.0000000000331966E-4</v>
       </c>
       <c r="H106" s="69">
         <v>35.571100000000001</v>
       </c>
       <c r="I106" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-4.1000000000011028E-3</v>
       </c>
       <c r="J106" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-4.2000000000044224E-3</v>
       </c>
       <c r="K106" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-2.9642857142534292E-4</v>
       </c>
       <c r="L106" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-1.4633928571437288E-3</v>
       </c>
     </row>
@@ -10683,7 +10683,7 @@
         <v>1031</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="E107" s="68">
         <v>35.581899999999997</v>
@@ -10692,26 +10692,26 @@
         <v>35.581200000000003</v>
       </c>
       <c r="G107" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>6.9999999999481588E-4</v>
       </c>
       <c r="H107" s="69">
         <v>35.584899999999998</v>
       </c>
       <c r="I107" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-3.0000000000001137E-3</v>
       </c>
       <c r="J107" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.6999999999949296E-3</v>
       </c>
       <c r="K107" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.0357142856615331E-4</v>
       </c>
       <c r="L107" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-3.6339285714273974E-4</v>
       </c>
     </row>
@@ -10726,7 +10726,7 @@
         <v>1032</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="E108" s="68">
         <v>35.583399999999997</v>
@@ -10735,26 +10735,26 @@
         <v>35.582299999999996</v>
       </c>
       <c r="G108" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.1000000000009891E-3</v>
       </c>
       <c r="H108" s="69">
         <v>35.585900000000002</v>
       </c>
       <c r="I108" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-2.5000000000048317E-3</v>
       </c>
       <c r="J108" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.6000000000058208E-3</v>
       </c>
       <c r="K108" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>7.0357142857232656E-4</v>
       </c>
       <c r="L108" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>1.3660714285254226E-4</v>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
         <v>1033</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="E109" s="68">
         <v>35.584000000000003</v>
@@ -10778,26 +10778,26 @@
         <v>35.582999999999998</v>
       </c>
       <c r="G109" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.0000000000047748E-3</v>
       </c>
       <c r="H109" s="69">
         <v>35.586300000000001</v>
       </c>
       <c r="I109" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-2.2999999999981924E-3</v>
       </c>
       <c r="J109" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.3000000000029672E-3</v>
       </c>
       <c r="K109" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>6.0357142857611233E-4</v>
       </c>
       <c r="L109" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3.3660714285918157E-4</v>
       </c>
     </row>
@@ -10812,7 +10812,7 @@
         <v>1034</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="E110" s="68">
         <v>35.466900000000003</v>
@@ -10821,26 +10821,26 @@
         <v>35.467399999999998</v>
       </c>
       <c r="G110" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-4.99999999995282E-4</v>
       </c>
       <c r="H110" s="69">
         <v>35.471299999999999</v>
       </c>
       <c r="I110" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-4.3999999999968509E-3</v>
       </c>
       <c r="J110" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.9000000000015689E-3</v>
       </c>
       <c r="K110" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-8.9642857142394452E-4</v>
       </c>
       <c r="L110" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-1.7633928571394769E-3</v>
       </c>
     </row>
@@ -10855,7 +10855,7 @@
         <v>1035</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="E111" s="68">
         <v>35.440199999999997</v>
@@ -10864,26 +10864,26 @@
         <v>35.439700000000002</v>
       </c>
       <c r="G111" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.99999999995282E-4</v>
       </c>
       <c r="H111" s="69">
         <v>35.443600000000004</v>
       </c>
       <c r="I111" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-3.4000000000062869E-3</v>
       </c>
       <c r="J111" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.9000000000015689E-3</v>
       </c>
       <c r="K111" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0357142856661942E-4</v>
       </c>
       <c r="L111" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-7.6339285714891294E-4</v>
       </c>
     </row>
@@ -10898,7 +10898,7 @@
         <v>1036</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="E112" s="68">
         <v>35.453000000000003</v>
@@ -10907,26 +10907,26 @@
         <v>35.452599999999997</v>
       </c>
       <c r="G112" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.000000000061732E-4</v>
       </c>
       <c r="H112" s="69">
         <v>35.456499999999998</v>
       </c>
       <c r="I112" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-3.4999999999953957E-3</v>
       </c>
       <c r="J112" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.9000000000015689E-3</v>
       </c>
       <c r="K112" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3.571428577510622E-6</v>
       </c>
       <c r="L112" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-8.6339285713802174E-4</v>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
         <v>1037</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="E113" s="68">
         <v>35.458799999999997</v>
@@ -10950,26 +10950,26 @@
         <v>35.458300000000001</v>
       </c>
       <c r="G113" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.99999999995282E-4</v>
       </c>
       <c r="H113" s="69">
         <v>35.461100000000002</v>
       </c>
       <c r="I113" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-2.3000000000052978E-3</v>
       </c>
       <c r="J113" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-2.8000000000005798E-3</v>
       </c>
       <c r="K113" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0357142856661942E-4</v>
       </c>
       <c r="L113" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>3.3660714285207614E-4</v>
       </c>
     </row>
@@ -10984,7 +10984,7 @@
         <v>1038</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="E114" s="68">
         <v>35.496400000000001</v>
@@ -10993,26 +10993,26 @@
         <v>35.495899999999999</v>
       </c>
       <c r="G114" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>5.0000000000238742E-4</v>
       </c>
       <c r="H114" s="69">
         <v>35.499899999999997</v>
       </c>
       <c r="I114" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-3.4999999999953957E-3</v>
       </c>
       <c r="J114" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.9999999999977831E-3</v>
       </c>
       <c r="K114" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0357142857372485E-4</v>
       </c>
       <c r="L114" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-8.6339285713802174E-4</v>
       </c>
     </row>
@@ -11027,7 +11027,7 @@
         <v>1039</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="E115" s="68">
         <v>35.514099999999999</v>
@@ -11036,26 +11036,26 @@
         <v>35.513800000000003</v>
       </c>
       <c r="G115" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>2.9999999999574811E-4</v>
       </c>
       <c r="H115" s="69">
         <v>35.517800000000001</v>
       </c>
       <c r="I115" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-3.700000000002035E-3</v>
       </c>
       <c r="J115" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.9999999999977831E-3</v>
       </c>
       <c r="K115" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-9.6428571432914461E-5</v>
       </c>
       <c r="L115" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-1.063392857144661E-3</v>
       </c>
     </row>
@@ -11070,7 +11070,7 @@
         <v>1040</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="E116" s="68">
         <v>35.539400000000001</v>
@@ -11079,26 +11079,26 @@
         <v>35.5381</v>
       </c>
       <c r="G116" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>1.300000000000523E-3</v>
       </c>
       <c r="H116" s="69">
         <v>35.542400000000001</v>
       </c>
       <c r="I116" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-3.0000000000001137E-3</v>
       </c>
       <c r="J116" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-4.3000000000006366E-3</v>
       </c>
       <c r="K116" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>9.0357142857186044E-4</v>
       </c>
       <c r="L116" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-3.6339285714273974E-4</v>
       </c>
     </row>
@@ -11113,7 +11113,7 @@
         <v>1041</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="E117" s="68">
         <v>35.555399999999999</v>
@@ -11122,26 +11122,26 @@
         <v>35.554900000000004</v>
       </c>
       <c r="G117" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>4.99999999995282E-4</v>
       </c>
       <c r="H117" s="69">
         <v>35.558900000000001</v>
       </c>
       <c r="I117" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-3.5000000000025011E-3</v>
       </c>
       <c r="J117" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>-3.9999999999977831E-3</v>
       </c>
       <c r="K117" s="16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1.0357142856661942E-4</v>
       </c>
       <c r="L117" s="20">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>-8.6339285714512716E-4</v>
       </c>
     </row>
@@ -11167,16 +11167,16 @@
       <c r="E119" s="68"/>
       <c r="F119" s="69"/>
       <c r="G119" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H119" s="69"/>
       <c r="I119" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J119" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K119" s="16">
@@ -11196,16 +11196,16 @@
       <c r="E120" s="68"/>
       <c r="F120" s="69"/>
       <c r="G120" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H120" s="69"/>
       <c r="I120" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J120" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K120" s="16">
@@ -11225,16 +11225,16 @@
       <c r="E121" s="68"/>
       <c r="F121" s="69"/>
       <c r="G121" s="68">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H121" s="69"/>
       <c r="I121" s="68">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="J121" s="68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="K121" s="16">
